--- a/upload/uploadPraktikan.xlsx
+++ b/upload/uploadPraktikan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sbdoj\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mov\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -38,13 +38,97 @@
     <t>Kelas</t>
   </si>
   <si>
-    <t>Sabila M A</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Demsy Iman M</t>
+    <t>Septiawan A.R.</t>
+  </si>
+  <si>
+    <t>M. Iqbal</t>
+  </si>
+  <si>
+    <t>Syavira T.Z.</t>
+  </si>
+  <si>
+    <t>Aulia Teaku Nururrahman</t>
+  </si>
+  <si>
+    <t>Sirria Panah Alam</t>
+  </si>
+  <si>
+    <t>Drajad Bima Ajipangestu</t>
+  </si>
+  <si>
+    <t>Nafingatun Ngaliah</t>
+  </si>
+  <si>
+    <t>Mutia Rahmi Dewi</t>
+  </si>
+  <si>
+    <t>Muh. Akram Abdullah</t>
+  </si>
+  <si>
+    <t>Naufal Pranasetyo Fodensi</t>
+  </si>
+  <si>
+    <t>Alvin Mudhoffar</t>
+  </si>
+  <si>
+    <t>Gusti Ngurah Satria Aryawan</t>
+  </si>
+  <si>
+    <t>Djohon Prabowo</t>
+  </si>
+  <si>
+    <t>Rangga Senatama Putra</t>
+  </si>
+  <si>
+    <t>Muhammad Budiana Eka Faruq'</t>
+  </si>
+  <si>
+    <t>Vicky Mahfudy</t>
+  </si>
+  <si>
+    <t>Yudha Aditya Muhammad</t>
+  </si>
+  <si>
+    <t>Muhammad Faris Didin A</t>
+  </si>
+  <si>
+    <t>Cahya Putra Hikmawan</t>
+  </si>
+  <si>
+    <t>Ahmad Ibnu Fajar</t>
+  </si>
+  <si>
+    <t>Agatha Putri Adwitya</t>
+  </si>
+  <si>
+    <t>M. Rosyid Abdurrohman</t>
+  </si>
+  <si>
+    <t>Rizky Pratama R.</t>
+  </si>
+  <si>
+    <t>Astrid Febrianca</t>
+  </si>
+  <si>
+    <t>Alfindio Muhammad Abdallah</t>
+  </si>
+  <si>
+    <t>M. Reza Ar Razi</t>
+  </si>
+  <si>
+    <t>Muhammad Firza Gustama</t>
+  </si>
+  <si>
+    <t>Alya Sherlyna Shana P.</t>
+  </si>
+  <si>
+    <t>Nurazizah K.</t>
+  </si>
+  <si>
+    <t>Dara Tursina</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -404,19 +488,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5114100034</v>
+        <v>5109100072</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,16 +536,409 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5113100200</v>
+        <v>5114100095</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5115100002</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5115100012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5115100017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5115100031</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5115100032</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5115100048</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5115100050</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5115100057</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5115100062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5115100066</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5115100067</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5115100076</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5115100084</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5115100105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5115100106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5115100118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5115100119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5115100133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5115100137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5115100144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5115100157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5115100162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5115100164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5115100165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5115100170</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5115100177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5115100702</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5115100707</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>